--- a/biology/Zoologie/Argus_de_la_sanguinaire/Argus_de_la_sanguinaire.xlsx
+++ b/biology/Zoologie/Argus_de_la_sanguinaire/Argus_de_la_sanguinaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eumedonia eumedon
 L’Argus de la sanguinaire (Eumedonia eumedon) est une espèce paléarctique de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
@@ -512,17 +524,88 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Eumedonia eumedon a été décrite par le naturaliste allemand Eugen Johann Christoph Esper en 1780[1], sous le nom initial de Papilio eumedon[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Eumedonia eumedon a été décrite par le naturaliste allemand Eugen Johann Christoph Esper en 1780, sous le nom initial de Papilio eumedon.
 Elle est l'espèce type du genre Eumedonia, mais ce dernier a un temps été synonymisé avec Aricia, avant d'être restauré. La combinaison Aricia eumedon est encore employée par de nombreux auteurs.
-Synonymes
-Aricia eumedon (Esper, 1780)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Argus_de_la_sanguinaire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_de_la_sanguinaire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aricia eumedon (Esper, 1780)
 Plebeius eumedon (Esper, 1780)
 Plebejus eumedon (Esper, 1780)
-Papilio chiron (Rottemburg, 1775)[3]
-Sous-espèces
-Selon Funet[2] :
+Papilio chiron (Rottemburg, 1775)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Argus_de_la_sanguinaire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_de_la_sanguinaire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Funet :
 Eumedonia eumedon eumedon en Europe, au Caucase et en Sibérie.
 Eumedonia eumedon albica Dubatolov, 1997.
 Eumedonia eumedon ambigua (Staudinger, 1899) en Chine.
@@ -539,31 +622,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Argus_de_la_sanguinaire</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Argus_de_la_sanguinaire</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Argus_de_la_sanguinaire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_de_la_sanguinaire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>en français : l’Argus de la sanguinaire
 en anglais : Geranium Argus
@@ -572,31 +657,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Argus_de_la_sanguinaire</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Argus_de_la_sanguinaire</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Argus_de_la_sanguinaire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_de_la_sanguinaire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit papillon qui présente un dimorphisme sexuel : le dessus du mâle est gris plus ou moins foncé avec une frange blanche, celui de la femelle est marron avec quelques taches sub marginales orange aux ailes postérieures avec aussi une frange blanche.
 Le revers est beige à jaune suffusé de bleu  orné d'une ligne sub marginale de points jaune orange doublée d'une ligne de points noirs cerclés de blanc.
@@ -604,74 +691,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Argus_de_la_sanguinaire</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Argus_de_la_sanguinaire</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération de mai à août selon l'altitude et la latitude. Volerait en deux générations en Asie[4]. Il hiverne à l'état de chenille.
-Plantes hôtes
-Ses plantes hôte sont normalement des Geranium, en particulier Geranium sanguineum,Geranium sylvaticum,Geranium palustre et Geranium pratense, mais dans le sud de l'Espagne (Andalousie) cette papillon use comme plantes hôte Erodium spp.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Argus_de_la_sanguinaire</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Argus_de_la_sanguinaire</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Argus de la sanguinaire est présent de l'Europe (Espagne, France, Suisse, nord de l'Italie, Roumanie, Scandinavie, rare dans les Balkans) jusqu'au Pacifique.
-En France métropolitaine, il est présent dans les départements du Puy-de-Dôme, du Var et des Alpes-Maritimes[5]. Selon d'autres sources il est présent dans les Pyrenées, le Massif Central et les Alpes soit vingt départements[6].
-Biotopes
-Il affectionne les clairières et les prairies d'altitude[7].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -693,10 +712,157 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération de mai à août selon l'altitude et la latitude. Volerait en deux générations en Asie. Il hiverne à l'état de chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Argus_de_la_sanguinaire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_de_la_sanguinaire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôte sont normalement des Geranium, en particulier Geranium sanguineum,Geranium sylvaticum,Geranium palustre et Geranium pratense, mais dans le sud de l'Espagne (Andalousie) cette papillon use comme plantes hôte Erodium spp.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Argus_de_la_sanguinaire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_de_la_sanguinaire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Argus de la sanguinaire est présent de l'Europe (Espagne, France, Suisse, nord de l'Italie, Roumanie, Scandinavie, rare dans les Balkans) jusqu'au Pacifique.
+En France métropolitaine, il est présent dans les départements du Puy-de-Dôme, du Var et des Alpes-Maritimes. Selon d'autres sources il est présent dans les Pyrenées, le Massif Central et les Alpes soit vingt départements.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Argus_de_la_sanguinaire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_de_la_sanguinaire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotopes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il affectionne les clairières et les prairies d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Argus_de_la_sanguinaire</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_de_la_sanguinaire</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier en France. En Allemagne, il est inscrit sur la liste rouge des insectes protégés[réf. souhaitée].
 </t>
